--- a/tests/Бензопилы.xlsx
+++ b/tests/Бензопилы.xlsx
@@ -436,84 +436,84 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Х 5320</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>735229</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Х 5320</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Х 3916</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>735227</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Х 3916</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Х 4118</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>735228</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Х 4118</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>X 520</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>697556</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>X 520</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>X 420</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>697555</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>X 420</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>X 370</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>697554</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>X 370</t>
         </is>
       </c>
     </row>
